--- a/Chapter_04/Chapter_4_Table_S4.13.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0229D7D0-6EFA-4BC6-9532-3A0E2ED8A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79D11DA-65CC-4F63-8ACC-ACD20EDD8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{793BD6A1-8F0E-43A0-BE56-EAEA54EA460E}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{22FE7B88-E7F5-49AE-B267-4D07C0545836}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.13" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Fold1</t>
   </si>
   <si>
-    <t>Combined</t>
+    <t>30-gene set</t>
   </si>
   <si>
     <t>Fold2</t>
@@ -157,14 +157,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFB3D16D-57CE-4822-9B4C-3EBEF3F679F3}" name="Table13" displayName="Table13" ref="A2:E7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5531E910-490A-4165-B27E-33A7DC17543A}" name="Table13" displayName="Table13" ref="A2:E7" totalsRowShown="0">
   <autoFilter ref="A2:E7" xr:uid="{EF9A6BD8-9730-4BF1-A163-FE866E503E4F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A015112F-40AF-4962-B638-8D16B3307B68}" name="Fold"/>
-    <tableColumn id="2" xr3:uid="{512D5291-D534-444D-AB36-DFBAEC8C8E67}" name="AUC"/>
-    <tableColumn id="3" xr3:uid="{CA017442-EC06-4B61-A74D-5C6610D5100E}" name="AUC_lower"/>
-    <tableColumn id="4" xr3:uid="{A427A422-771C-4C57-BAA1-F4E382FE9E7B}" name="AUC_upper"/>
-    <tableColumn id="5" xr3:uid="{4415EE71-D180-4109-BC36-8FC2CE6A35A1}" name="Gene Set"/>
+    <tableColumn id="1" xr3:uid="{B3D2B130-F439-4EE1-89BF-9F1CE8F7D0D2}" name="Fold"/>
+    <tableColumn id="2" xr3:uid="{F156109C-4641-4235-9FE1-A6E1BB3B758E}" name="AUC"/>
+    <tableColumn id="3" xr3:uid="{B7B0914E-3C94-4D4D-858F-5BF0633B5A60}" name="AUC_lower"/>
+    <tableColumn id="4" xr3:uid="{6ACE488D-0370-4CF9-AE3E-1F198099F1D9}" name="AUC_upper"/>
+    <tableColumn id="5" xr3:uid="{5A3BDD34-0896-4F97-8B0B-D59460A54616}" name="Gene Set"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CC89A1-E574-4C51-8E65-F0938BB95730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E756C529-87CE-4115-A189-79F5F18120D0}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -516,7 +516,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,15 +533,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99319727891156495</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.97707836111051805</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -550,15 +550,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -567,15 +567,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.97399999999999998</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -584,15 +584,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.99199999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C6">
-        <v>0.97199999999999998</v>
+        <v>0.92290322306711503</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -601,15 +601,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.96153846153846201</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.89702859416324399</v>
       </c>
       <c r="D7">
         <v>1</v>
